--- a/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>53.18026424876968</v>
+        <v>53.12850890361662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>39.64197735317355</v>
+        <v>39.94348484202981</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34.45368827338159</v>
+        <v>34.26058362424777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26.39794014625042</v>
+        <v>26.30823168171598</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.837595360902712</v>
+        <v>1.819216906920231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9128050372234037</v>
+        <v>0.9342445122724035</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.685197723684989</v>
+        <v>0.6701088962814274</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3980227697649034</v>
+        <v>0.3931180471196315</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>61.95810863689623</v>
+        <v>62.08120520608142</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>49.06690020306223</v>
+        <v>49.34296915323336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43.53774328146942</v>
+        <v>43.78095777064309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35.1758212967414</v>
+        <v>34.97534248812168</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.705103738101099</v>
+        <v>2.700219684329033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.345140252768633</v>
+        <v>1.362644469280866</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9845009585356836</v>
+        <v>0.98573431622253</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6016217666463206</v>
+        <v>0.5953781983122709</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>37.84041851557853</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26.92460093243234</v>
+        <v>26.92460093243233</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.737209302070545</v>
@@ -749,7 +749,7 @@
         <v>0.7373298907748039</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4141607003355854</v>
+        <v>0.4141607003355852</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>50.95274309977916</v>
+        <v>50.69923018839111</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>36.30671636517423</v>
+        <v>36.15227442232059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>33.90944978378476</v>
+        <v>33.64378152443703</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23.15909948300614</v>
+        <v>22.92986164829475</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.484535986771978</v>
+        <v>1.48820280029576</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8030306419676919</v>
+        <v>0.801458699311891</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6196924649560585</v>
+        <v>0.6158391792988182</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3397327880524369</v>
+        <v>0.3360596376272879</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>58.16515697481523</v>
+        <v>58.46784072123759</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>44.09116683276584</v>
+        <v>44.37415528622265</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>41.38096735395696</v>
+        <v>41.50239633991895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.63462898369824</v>
+        <v>30.6765861874177</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.030184571055704</v>
+        <v>2.0481683904301</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.113910264749918</v>
+        <v>1.117954032689245</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8552008503406335</v>
+        <v>0.8589757284741449</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4970525762157469</v>
+        <v>0.498578418715179</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>42.54022092339564</v>
+        <v>42.99507334400111</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>36.99380799826439</v>
+        <v>36.67166693944409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31.42225446672471</v>
+        <v>31.83296679877883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.72300559145366</v>
+        <v>18.77695256913113</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9777060366733225</v>
+        <v>0.9903666544788557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7917327105315064</v>
+        <v>0.7871047337773714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5614430617938206</v>
+        <v>0.5796904064483539</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2672121789279243</v>
+        <v>0.2668645095170702</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>51.97068616456906</v>
+        <v>52.43900306993188</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>46.74192367005463</v>
+        <v>46.71352289789483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40.34721999465128</v>
+        <v>40.41266422155219</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27.80447587820007</v>
+        <v>27.65383224909567</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.432518321644174</v>
+        <v>1.455597453822824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.175306077357559</v>
+        <v>1.181194817176057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.82344873609293</v>
+        <v>0.8385457418447135</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4407320627880946</v>
+        <v>0.4330036121263603</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>25.49823189732421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21.29059344461539</v>
+        <v>21.29059344461537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.04781763638485</v>
@@ -949,7 +949,7 @@
         <v>0.4270547087569691</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3212989249297131</v>
+        <v>0.3212989249297126</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>37.07128596997813</v>
+        <v>37.37880938074436</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>30.1518534767647</v>
+        <v>30.37486201437958</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21.27920146897621</v>
+        <v>21.53532550249567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.28487073170016</v>
+        <v>17.57310347723342</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8766588098243474</v>
+        <v>0.8788636748357298</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5934517290222219</v>
+        <v>0.5920631690291209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3398625531704661</v>
+        <v>0.3461110298439753</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2477394417279004</v>
+        <v>0.2564094048623698</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>44.93222342841734</v>
+        <v>45.29649925711507</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>38.64921790136169</v>
+        <v>38.5920637170815</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29.48133524427401</v>
+        <v>29.40838075288664</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>25.2996348438424</v>
+        <v>25.12598288444703</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.214671003551929</v>
+        <v>1.231669647143392</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8513247224890848</v>
+        <v>0.8500198768771695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5178547070001768</v>
+        <v>0.5175458451520323</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3981183652067449</v>
+        <v>0.4020432528815375</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>47.79756877134323</v>
+        <v>47.63101433768679</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>37.59725639114482</v>
+        <v>37.64528737338964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32.37106202750736</v>
+        <v>32.1368944364745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23.27177402312205</v>
+        <v>23.13400404791</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.341216295503924</v>
+        <v>1.329736050061783</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8325969498443565</v>
+        <v>0.8300952967021973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5942356427274974</v>
+        <v>0.5890848571112731</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3480311888705003</v>
+        <v>0.3442563606962628</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>51.87944953805014</v>
+        <v>51.78796518749205</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>41.88892295997069</v>
+        <v>42.06562315134375</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36.50890048379221</v>
+        <v>36.39135717626836</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.17241778759495</v>
+        <v>27.20880241906897</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.590282310516077</v>
+        <v>1.576230975101897</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9967610095058264</v>
+        <v>1.000114390940043</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7100578150720971</v>
+        <v>0.7057409898877325</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4261865116735543</v>
+        <v>0.4259763048467824</v>
       </c>
     </row>
     <row r="19">
